--- a/nop-cli/demo/_vfs/batch/txn.record-file.xlsx
+++ b/nop-cli/demo/_vfs/batch/txn.record-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0ACF7C-D271-49AD-8475-4C974FAD1227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B94FC2E-6660-4476-AF9F-89241B221A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="文件结构" sheetId="23" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,53 @@
   </si>
   <si>
     <t>0x0D0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D0A</t>
+  </si>
+  <si>
+    <t>导出表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endOfLine是一个虚拟字段，仅用于输出固定内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggState.writeCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,6 +528,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -496,12 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,22 +570,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,9 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -861,7 +908,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -881,11 +928,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="10" t="s">
         <v>36</v>
       </c>
@@ -895,8 +942,8 @@
       <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -906,105 +953,105 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1122,85 +1169,103 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="25">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="25" t="s">
+      <c r="F16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
@@ -1211,16 +1276,6 @@
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD688598-3F6A-4D77-9066-91E16E76E405}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1243,125 +1298,146 @@
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.77734375" customWidth="1"/>
     <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="10" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1393,13 +1469,22 @@
         <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1422,10 +1507,17 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1448,52 +1540,87 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A12:O12"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="I3:J3"/>
@@ -1501,12 +1628,6 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1515,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1536,75 +1657,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="7"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="7"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1612,17 +1733,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1630,38 +1751,38 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1850,20 +1971,20 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1873,6 +1994,11 @@
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1901,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC021F8-E470-4D4F-9A5D-5511B14CF41C}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1915,125 +2041,132 @@
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="4.77734375" customWidth="1"/>
     <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2065,13 +2198,16 @@
         <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2083,7 +2219,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>63</v>
@@ -2094,10 +2230,13 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -2108,7 +2247,9 @@
       <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>63</v>
       </c>
@@ -2117,37 +2258,45 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A11:M11"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="I3:J3"/>
@@ -2155,12 +2304,6 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-cli/demo/_vfs/batch/txn.record-file.xlsx
+++ b/nop-cli/demo/_vfs/batch/txn.record-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B94FC2E-6660-4476-AF9F-89241B221A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624415CA-B58A-4542-8020-8B67A61F9575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="文件结构" sheetId="23" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,14 @@
   </si>
   <si>
     <t>aggState.writeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount={{ totalCount}}  totalAmount={{ totalAmount}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,65 +536,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -928,11 +936,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="10" t="s">
         <v>36</v>
       </c>
@@ -942,8 +950,8 @@
       <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -953,105 +961,105 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1169,93 +1177,103 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="24"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <v>1</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="27" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="18" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="D4:O4"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A13:O13"/>
@@ -1266,16 +1284,6 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1286,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD688598-3F6A-4D77-9066-91E16E76E405}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1303,20 +1311,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
@@ -1324,20 +1332,20 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -1345,18 +1353,18 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -1364,17 +1372,17 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1383,17 +1391,17 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1402,40 +1410,40 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1508,7 +1516,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>73</v>
@@ -1540,9 +1548,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
         <v>74</v>
@@ -1584,21 +1590,21 @@
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="24"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1612,12 +1618,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A12:O12"/>
@@ -1628,6 +1628,12 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,75 +1663,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="7"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="7"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1733,17 +1739,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1751,38 +1757,38 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1971,20 +1977,20 @@
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="24"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -2029,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC021F8-E470-4D4F-9A5D-5511B14CF41C}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2046,125 +2052,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="12"/>
       <c r="L2" s="7"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="12"/>
       <c r="L3" s="7"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="7"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2219,7 +2227,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>63</v>
@@ -2262,19 +2270,19 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="24"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2288,12 +2296,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A11:M11"/>
@@ -2304,6 +2306,12 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-cli/demo/_vfs/batch/txn.record-file.xlsx
+++ b/nop-cli/demo/_vfs/batch/txn.record-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624415CA-B58A-4542-8020-8B67A61F9575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A3743-2CEE-48C1-AF68-51EFC0065211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="文件结构" sheetId="23" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>字段列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,162 +186,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>缺省字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否二进制文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeaderObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrailerObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endOfLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>produceDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D0A</t>
+  </si>
+  <si>
+    <t>导出表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endOfLine是一个虚拟字段，仅用于输出固定内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggState.writeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount={{ totalCount}}  totalAmount={{ totalAmount}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UTF-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺省字符集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否二进制文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeaderObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrailerObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txnAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txnTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endOfLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>produceDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0D0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0D0A</t>
-  </si>
-  <si>
-    <t>导出表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txnAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>today()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endOfLine是一个虚拟字段，仅用于输出固定内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aggState.writeCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCount={{ totalCount}}  totalAmount={{ totalAmount}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+  </si>
+  <si>
+    <t>判断文件体结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,6 +539,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -551,12 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,22 +581,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,9 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0482BA-3F93-442F-8AFE-D86C98EA24A7}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -925,7 +928,8 @@
     <col min="2" max="2" width="4.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="6.21875" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -936,22 +940,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="17"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -961,169 +965,171 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1177,113 +1183,133 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>1</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="8" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="25" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
+      <c r="K17" s="28"/>
+      <c r="L17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:O3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:O5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD688598-3F6A-4D77-9066-91E16E76E405}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1311,20 +1337,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
@@ -1332,20 +1358,20 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -1353,18 +1379,18 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -1372,17 +1398,17 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1391,17 +1417,17 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1410,40 +1436,40 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1477,13 +1503,13 @@
         <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>17</v>
@@ -1498,7 +1524,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>32</v>
@@ -1507,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -1516,10 +1542,10 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1531,16 +1557,16 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="4">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -1551,7 +1577,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="4"/>
@@ -1562,7 +1588,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>32</v>
@@ -1578,10 +1604,10 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="4"/>
@@ -1590,21 +1616,21 @@
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1618,6 +1644,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A12:O12"/>
@@ -1628,12 +1660,6 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1645,7 +1671,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1663,75 +1689,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="7"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="7"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1739,17 +1765,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1757,38 +1783,38 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1816,19 +1842,19 @@
         <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>9</v>
@@ -1840,7 +1866,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>32</v>
@@ -1849,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -1868,7 +1894,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
@@ -1877,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
@@ -1896,16 +1922,16 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>36</v>
@@ -1924,16 +1950,16 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="4">
         <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>36</v>
@@ -1952,7 +1978,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>32</v>
@@ -1962,35 +1988,35 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -2004,7 +2030,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2036,7 +2062,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2052,127 +2078,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="12"/>
       <c r="L2" s="7"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="12"/>
       <c r="L3" s="7"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="7"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2206,7 +2232,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -2221,7 +2247,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
@@ -2230,7 +2256,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
@@ -2239,7 +2265,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4"/>
@@ -2250,16 +2276,16 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E10" s="4">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -2270,19 +2296,19 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2296,6 +2322,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A11:M11"/>
@@ -2306,12 +2338,6 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
